--- a/tests/end_to_end/validation/input/test_05/validation_test_05_data.xlsx
+++ b/tests/end_to_end/validation/input/test_05/validation_test_05_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitoresearch-my.sharepoint.com/personal/dirk_devriendt_ext_vito_be/Documents/Documents/git/pypeh/tests/end_to_end/validation/input/test_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisschog\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{DAAFFCAB-D565-4632-AEE7-B0C78C4AF9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A20AE52A-664D-41D8-912F-85855456B251}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6AE6F1-ADF7-4C4B-8DF0-74FFA6EE1EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47655" yWindow="-1395" windowWidth="23865" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STUDYINFO" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
   <si>
     <t>THIS INFORMATION IS PROVIDED BY PARC DATA MANAGEMENT TEAM</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>UK</t>
+  </si>
+  <si>
+    <t>lipidassessment</t>
   </si>
 </sst>
 </file>
@@ -968,11 +971,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,7 +994,7 @@
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1028,8 +1031,11 @@
       <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>863</v>
       </c>
@@ -1066,8 +1072,11 @@
       <c r="L2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>864</v>
       </c>
@@ -1104,8 +1113,11 @@
       <c r="L3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>865</v>
       </c>
@@ -1142,8 +1154,11 @@
       <c r="L4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>866</v>
       </c>
@@ -1180,8 +1195,11 @@
       <c r="L5">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>867</v>
       </c>
@@ -1218,8 +1236,11 @@
       <c r="L6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>868</v>
       </c>
@@ -1256,8 +1277,11 @@
       <c r="L7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>869</v>
       </c>
@@ -1294,8 +1318,11 @@
       <c r="L8">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>870</v>
       </c>
@@ -1332,8 +1359,11 @@
       <c r="L9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>871</v>
       </c>
@@ -1370,8 +1400,11 @@
       <c r="L10">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>872</v>
       </c>
@@ -1408,8 +1441,11 @@
       <c r="L11">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>873</v>
       </c>
@@ -1442,6 +1478,9 @@
       </c>
       <c r="L12">
         <v>13</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1455,9 +1494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2553,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
